--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_725.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_725.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32276-d5954170-Reviews-Studio_6_Cypress-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>16</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Orange-County-Hotels-Studio-6-Cypress.h7374438.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_725.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_725.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="106">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,196 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/10/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d5954170-r391330616-Studio_6_Cypress-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>32276</t>
+  </si>
+  <si>
+    <t>5954170</t>
+  </si>
+  <si>
+    <t>391330616</t>
+  </si>
+  <si>
+    <t>07/11/2016</t>
+  </si>
+  <si>
+    <t>Modern rooms for the most part but severe parking issues</t>
+  </si>
+  <si>
+    <t>Stayed here 5 nights with my wife and a friend while visiting Disneyland and Knotts Berry Farm.
+Let's start with the room. The rooms at this motel have the new modern Motel 6 look with the green/gray colors and faux wood floors. The first room we were given had a bad lock on the door that wouldnt work and the second latch lock was missing. Luckily, I asked if there was another room available and was able to move. This room had a working lock and latch. The room itself was clean. Drapes had some holes in them, and it appears someone had broke the lock on the bathroom door at some point. The door was pretty beat up and the metal cover was missing from the lock. Not a big deal though. I am assuming this room was vacant for a while as there was a daddy long legs spider living in the shower that I am sure someone would have noticed if they were staying there. The A/C is an old pretty beat up wall unit that could use an update.
+There are some people that are obviously "living" in here for an extended period of time. The room directly above us had an assortment of plants in the window of the room, and out on the pathway by the door. The people in this room woke us up nearly every morning with the sounds of furniture moving...Stayed here 5 nights with my wife and a friend while visiting Disneyland and Knotts Berry Farm.Let's start with the room. The rooms at this motel have the new modern Motel 6 look with the green/gray colors and faux wood floors. The first room we were given had a bad lock on the door that wouldnt work and the second latch lock was missing. Luckily, I asked if there was another room available and was able to move. This room had a working lock and latch. The room itself was clean. Drapes had some holes in them, and it appears someone had broke the lock on the bathroom door at some point. The door was pretty beat up and the metal cover was missing from the lock. Not a big deal though. I am assuming this room was vacant for a while as there was a daddy long legs spider living in the shower that I am sure someone would have noticed if they were staying there. The A/C is an old pretty beat up wall unit that could use an update.There are some people that are obviously "living" in here for an extended period of time. The room directly above us had an assortment of plants in the window of the room, and out on the pathway by the door. The people in this room woke us up nearly every morning with the sounds of furniture moving around. Not sure exactly what was going on there. There were also some questionable people hanging around outside their rooms but they never did anything bad, it was just kind of awkward.This motel's biggest issue is parking and it caused us frustration a couple nights of our stay. The first 2 nights I was lucky enough to find a parking spot in the back of the lot, the only spot left in the entire lot. Night 3 was a different story. There were absolutely no spots left when we came back from Disney. There is a fire lane in the parking lot and that was even full of cars. I waited around for 10-15 minutes for the manager to show up (he was busy with a plunger in one of the rooms) and he wrote me out a parking pass to park in the adjacent restaurant, but only in the darkest area of the parking lot where no one could even see the cars. Luckily as I parked here I noticed someone leave the motel's parking lot and I moved by car back over there. On night 4, the parking lot was once again full, but no one was in the fire lane that was full of cars the night before. I pulled up here and a manager came out (it was never the same manger any of the days we were here) and told me I couldnt park there or in the restaurant lot now, I had to park clear across the street at some car mechanic......are you KIDDING me?!? Luckily for us he changed his mind 5 minutes later and allowed us to park in the fire lane so long as I moved the car at 8am. Great. I am on vacation and planned to sleep in for once and now I had to get up and move the car. The final night we were able to find a spot, so we didnt have to go through this circus act again.Overall the rooms are fine for the price. Everything in this area was expensive and I'd rather stay here than pay $30-50 more a night for a similar place down the road a few miles closer to the parks. The biggest issue here though is the parking. If you come during a less busy time of year this might not be an issue but during a busy time it is ridiculous and will cause you a headache when all you want to do is get in you room and sleep.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Stayed here 5 nights with my wife and a friend while visiting Disneyland and Knotts Berry Farm.
+Let's start with the room. The rooms at this motel have the new modern Motel 6 look with the green/gray colors and faux wood floors. The first room we were given had a bad lock on the door that wouldnt work and the second latch lock was missing. Luckily, I asked if there was another room available and was able to move. This room had a working lock and latch. The room itself was clean. Drapes had some holes in them, and it appears someone had broke the lock on the bathroom door at some point. The door was pretty beat up and the metal cover was missing from the lock. Not a big deal though. I am assuming this room was vacant for a while as there was a daddy long legs spider living in the shower that I am sure someone would have noticed if they were staying there. The A/C is an old pretty beat up wall unit that could use an update.
+There are some people that are obviously "living" in here for an extended period of time. The room directly above us had an assortment of plants in the window of the room, and out on the pathway by the door. The people in this room woke us up nearly every morning with the sounds of furniture moving...Stayed here 5 nights with my wife and a friend while visiting Disneyland and Knotts Berry Farm.Let's start with the room. The rooms at this motel have the new modern Motel 6 look with the green/gray colors and faux wood floors. The first room we were given had a bad lock on the door that wouldnt work and the second latch lock was missing. Luckily, I asked if there was another room available and was able to move. This room had a working lock and latch. The room itself was clean. Drapes had some holes in them, and it appears someone had broke the lock on the bathroom door at some point. The door was pretty beat up and the metal cover was missing from the lock. Not a big deal though. I am assuming this room was vacant for a while as there was a daddy long legs spider living in the shower that I am sure someone would have noticed if they were staying there. The A/C is an old pretty beat up wall unit that could use an update.There are some people that are obviously "living" in here for an extended period of time. The room directly above us had an assortment of plants in the window of the room, and out on the pathway by the door. The people in this room woke us up nearly every morning with the sounds of furniture moving around. Not sure exactly what was going on there. There were also some questionable people hanging around outside their rooms but they never did anything bad, it was just kind of awkward.This motel's biggest issue is parking and it caused us frustration a couple nights of our stay. The first 2 nights I was lucky enough to find a parking spot in the back of the lot, the only spot left in the entire lot. Night 3 was a different story. There were absolutely no spots left when we came back from Disney. There is a fire lane in the parking lot and that was even full of cars. I waited around for 10-15 minutes for the manager to show up (he was busy with a plunger in one of the rooms) and he wrote me out a parking pass to park in the adjacent restaurant, but only in the darkest area of the parking lot where no one could even see the cars. Luckily as I parked here I noticed someone leave the motel's parking lot and I moved by car back over there. On night 4, the parking lot was once again full, but no one was in the fire lane that was full of cars the night before. I pulled up here and a manager came out (it was never the same manger any of the days we were here) and told me I couldnt park there or in the restaurant lot now, I had to park clear across the street at some car mechanic......are you KIDDING me?!? Luckily for us he changed his mind 5 minutes later and allowed us to park in the fire lane so long as I moved the car at 8am. Great. I am on vacation and planned to sleep in for once and now I had to get up and move the car. The final night we were able to find a spot, so we didnt have to go through this circus act again.Overall the rooms are fine for the price. Everything in this area was expensive and I'd rather stay here than pay $30-50 more a night for a similar place down the road a few miles closer to the parks. The biggest issue here though is the parking. If you come during a less busy time of year this might not be an issue but during a busy time it is ridiculous and will cause you a headache when all you want to do is get in you room and sleep.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d5954170-r382798827-Studio_6_Cypress-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>382798827</t>
+  </si>
+  <si>
+    <t>06/15/2016</t>
+  </si>
+  <si>
+    <t>"IMPRESSED NONETHELESS"</t>
+  </si>
+  <si>
+    <t>Studio 6 is a great hotel...the reviews do not reveal the great interiors of the facility. The rooms are clean, comfy and cozy. The beds will take you to dreamland like magic. I slept very well and in some cases over relaxed. I got a lot of work done with the free wifi service and managed to get in some tv time also. The housekeeping staff is very courteous and will keep you stocked with towels, soap and whatever necessities you need. Ask for Rosalinda. She is quite a peach and does her job to perfection. The housekeeping staff will check on you everyday to tidy up your room and restock it. This is probably the first hotel i have felt okay with to walk around on the laminated wood floors barefoot. Another benefit of this area everyone fails to mention is that the food trucks rally at the home depot a block or so away in the parking lot on Tuesdays drawing big crowds to the area. I went there for the catfish po'boy sandwiches with french fries. The trucks have all types of foods and desserts you can buy and eat there or take back to your room. Don't be put off by the exterior because the interiors are the real prize. I would recommend to anyone whether you be a casual traveler, tourist or local just looking to spend a quiet moment....This is the spot.  This location...Studio 6 is a great hotel...the reviews do not reveal the great interiors of the facility. The rooms are clean, comfy and cozy. The beds will take you to dreamland like magic. I slept very well and in some cases over relaxed. I got a lot of work done with the free wifi service and managed to get in some tv time also. The housekeeping staff is very courteous and will keep you stocked with towels, soap and whatever necessities you need. Ask for Rosalinda. She is quite a peach and does her job to perfection. The housekeeping staff will check on you everyday to tidy up your room and restock it. This is probably the first hotel i have felt okay with to walk around on the laminated wood floors barefoot. Another benefit of this area everyone fails to mention is that the food trucks rally at the home depot a block or so away in the parking lot on Tuesdays drawing big crowds to the area. I went there for the catfish po'boy sandwiches with french fries. The trucks have all types of foods and desserts you can buy and eat there or take back to your room. Don't be put off by the exterior because the interiors are the real prize. I would recommend to anyone whether you be a casual traveler, tourist or local just looking to spend a quiet moment....This is the spot.  This location is also adjacent to TACO BELL, L&amp;L HAWAIIAN BBQ, PANDA EXPRESS, FARMER BOYS BURGERS, KFC, THE POST OFFICE, ROSS, MARSHALL'S, UPS STORE, SEVERAL NAIL SHOPS AND AIR SALONS, CYPRESS COLLEGE, BIG LOTS, SALLY'S,2 LAUNDRIES, ALBERTSON'S, DOLLAR TREE, ARBY'S, BANK OF AMERICA, CHASE BANK AND HOME DEPOT.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Studio 6 is a great hotel...the reviews do not reveal the great interiors of the facility. The rooms are clean, comfy and cozy. The beds will take you to dreamland like magic. I slept very well and in some cases over relaxed. I got a lot of work done with the free wifi service and managed to get in some tv time also. The housekeeping staff is very courteous and will keep you stocked with towels, soap and whatever necessities you need. Ask for Rosalinda. She is quite a peach and does her job to perfection. The housekeeping staff will check on you everyday to tidy up your room and restock it. This is probably the first hotel i have felt okay with to walk around on the laminated wood floors barefoot. Another benefit of this area everyone fails to mention is that the food trucks rally at the home depot a block or so away in the parking lot on Tuesdays drawing big crowds to the area. I went there for the catfish po'boy sandwiches with french fries. The trucks have all types of foods and desserts you can buy and eat there or take back to your room. Don't be put off by the exterior because the interiors are the real prize. I would recommend to anyone whether you be a casual traveler, tourist or local just looking to spend a quiet moment....This is the spot.  This location...Studio 6 is a great hotel...the reviews do not reveal the great interiors of the facility. The rooms are clean, comfy and cozy. The beds will take you to dreamland like magic. I slept very well and in some cases over relaxed. I got a lot of work done with the free wifi service and managed to get in some tv time also. The housekeeping staff is very courteous and will keep you stocked with towels, soap and whatever necessities you need. Ask for Rosalinda. She is quite a peach and does her job to perfection. The housekeeping staff will check on you everyday to tidy up your room and restock it. This is probably the first hotel i have felt okay with to walk around on the laminated wood floors barefoot. Another benefit of this area everyone fails to mention is that the food trucks rally at the home depot a block or so away in the parking lot on Tuesdays drawing big crowds to the area. I went there for the catfish po'boy sandwiches with french fries. The trucks have all types of foods and desserts you can buy and eat there or take back to your room. Don't be put off by the exterior because the interiors are the real prize. I would recommend to anyone whether you be a casual traveler, tourist or local just looking to spend a quiet moment....This is the spot.  This location is also adjacent to TACO BELL, L&amp;L HAWAIIAN BBQ, PANDA EXPRESS, FARMER BOYS BURGERS, KFC, THE POST OFFICE, ROSS, MARSHALL'S, UPS STORE, SEVERAL NAIL SHOPS AND AIR SALONS, CYPRESS COLLEGE, BIG LOTS, SALLY'S,2 LAUNDRIES, ALBERTSON'S, DOLLAR TREE, ARBY'S, BANK OF AMERICA, CHASE BANK AND HOME DEPOT.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d5954170-r382611126-Studio_6_Cypress-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>382611126</t>
+  </si>
+  <si>
+    <t>06/14/2016</t>
+  </si>
+  <si>
+    <t>Great for the Price</t>
+  </si>
+  <si>
+    <t>We found this on a holiday weekend. We were surprised at the price and availability for the holiday. Staff was very helpful and room was very nice. Loved the location and didn't realize we had a kitchenette until we entered the room. It was very crowded due to the holiday weekend so parking was not good at all. Otherwise it was a great room with good service. Will stay again soon.</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d5954170-r349539090-Studio_6_Cypress-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>349539090</t>
+  </si>
+  <si>
+    <t>02/20/2016</t>
+  </si>
+  <si>
+    <t>Key problems!</t>
+  </si>
+  <si>
+    <t>Seems like everyone was having room key problems that night including me. After the front desk fixed the issue everything was great. Clean room and bathroom. Great stay!! Only down side i saw was the lack of parking spaces for the guests. I will stay there again!!</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d5954170-r219940134-Studio_6_Cypress-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>219940134</t>
+  </si>
+  <si>
+    <t>08/05/2014</t>
+  </si>
+  <si>
+    <t>Some good, some bad</t>
+  </si>
+  <si>
+    <t>First, the good - recently updated rooms with a mini kitchen, and the convenient location made a good home base for our stay in the LA area.The bad - as other reviewers here and elsewhere on the web have pointed out, there are far too many inconsiderate people hanging around in the parking lot and outside the rooms at all hours of the night, slamming doors, laughing, yelling, and loud talking like it's the middle of the day, setting off fireworks, drinking, and who knows what else.There seems to be many long term residents who treat the common area like its their own front yard, including dragging furniture out of the rooms to sit around outside at night, hang out, and call down at each other from the balcony walkway. Our neighbors were right outside our door every night, loud talking and yelling until 1:30 am or later. It's not a very good atmosphere for travelling families. Management really needs to get a handle on and take control of what goes on in their lot at night.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>JGuerrero5059, General Manager at Studio 6 Cypress, responded to this reviewResponded August 27, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 27, 2014</t>
+  </si>
+  <si>
+    <t>First, the good - recently updated rooms with a mini kitchen, and the convenient location made a good home base for our stay in the LA area.The bad - as other reviewers here and elsewhere on the web have pointed out, there are far too many inconsiderate people hanging around in the parking lot and outside the rooms at all hours of the night, slamming doors, laughing, yelling, and loud talking like it's the middle of the day, setting off fireworks, drinking, and who knows what else.There seems to be many long term residents who treat the common area like its their own front yard, including dragging furniture out of the rooms to sit around outside at night, hang out, and call down at each other from the balcony walkway. Our neighbors were right outside our door every night, loud talking and yelling until 1:30 am or later. It's not a very good atmosphere for travelling families. Management really needs to get a handle on and take control of what goes on in their lot at night.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d5954170-r215403418-Studio_6_Cypress-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>215403418</t>
+  </si>
+  <si>
+    <t>07/14/2014</t>
+  </si>
+  <si>
+    <t>We'll be staying here again</t>
+  </si>
+  <si>
+    <t>Clean, comfy. I loved that the pillows weren't like balloons, they were a bit broken in and oh soo cozy. The beds and blankets were very clean, I didn't need to use my own linens. The towels were clean and new. Great kitchenette and restroom. The shower can double as an exfoliator, it felt great after a day at the beach. The only thing that bothered me was that there are so many people in the parking lot and hanging around at night. There were also loud music and laughter at 3am. It was still better than the neighboring hotelMoreShow less</t>
+  </si>
+  <si>
+    <t>Clean, comfy. I loved that the pillows weren't like balloons, they were a bit broken in and oh soo cozy. The beds and blankets were very clean, I didn't need to use my own linens. The towels were clean and new. Great kitchenette and restroom. The shower can double as an exfoliator, it felt great after a day at the beach. The only thing that bothered me was that there are so many people in the parking lot and hanging around at night. There were also loud music and laughter at 3am. It was still better than the neighboring hotelMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d5954170-r207584870-Studio_6_Cypress-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>207584870</t>
+  </si>
+  <si>
+    <t>05/28/2014</t>
+  </si>
+  <si>
+    <t>Awesome place for a place to crash while at Disney/Knotts</t>
+  </si>
+  <si>
+    <t>this place is very clean and well kept inside, there's a full kitchen with cooking utensils available. The only downside were the people that came out at night to hang out in the parking lots, but hotel employees make them leave after 9:30if you're here just for a place to crash for a few days its perfect, especially if you're gonna go to knotts or disneylandMoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>JGuerrero5059, General Manager at Studio 6 Cypress, responded to this reviewResponded July 8, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 8, 2014</t>
+  </si>
+  <si>
+    <t>this place is very clean and well kept inside, there's a full kitchen with cooking utensils available. The only downside were the people that came out at night to hang out in the parking lots, but hotel employees make them leave after 9:30if you're here just for a place to crash for a few days its perfect, especially if you're gonna go to knotts or disneylandMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d5954170-r197220315-Studio_6_Cypress-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>197220315</t>
+  </si>
+  <si>
+    <t>03/12/2014</t>
+  </si>
+  <si>
+    <t>Awesome</t>
+  </si>
+  <si>
+    <t>Checked into Studio 6 Cypress, Ca. and it is amazing... Modern, full kitchen, terrific staff... Victoria and John, the manager, go out of their way to make you feel comfortable and welcome... better than any place .... the amenities are great .... would stay here anytime..... great job, Victoria and John.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>Checked into Studio 6 Cypress, Ca. and it is amazing... Modern, full kitchen, terrific staff... Victoria and John, the manager, go out of their way to make you feel comfortable and welcome... better than any place .... the amenities are great .... would stay here anytime..... great job, Victoria and John.More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +838,522 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>50681</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="n">
+        <v>3</v>
+      </c>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>3</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>50681</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>50681</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" t="s">
+        <v>66</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>67</v>
+      </c>
+      <c r="O4" t="s">
+        <v>68</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="n">
+        <v>4</v>
+      </c>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>4</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>50681</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K5" t="s">
+        <v>72</v>
+      </c>
+      <c r="L5" t="s">
+        <v>73</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>74</v>
+      </c>
+      <c r="O5" t="s">
+        <v>60</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>50681</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K6" t="s">
+        <v>78</v>
+      </c>
+      <c r="L6" t="s">
+        <v>79</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>80</v>
+      </c>
+      <c r="O6" t="s">
+        <v>68</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="n">
+        <v>4</v>
+      </c>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>3</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>81</v>
+      </c>
+      <c r="X6" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>50681</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K7" t="s">
+        <v>87</v>
+      </c>
+      <c r="L7" t="s">
+        <v>88</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s"/>
+      <c r="O7" t="s"/>
+      <c r="P7" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>3</v>
+      </c>
+      <c r="R7" t="n">
+        <v>3</v>
+      </c>
+      <c r="S7" t="n">
+        <v>4</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>4</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>81</v>
+      </c>
+      <c r="X7" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>50681</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>91</v>
+      </c>
+      <c r="J8" t="s">
+        <v>92</v>
+      </c>
+      <c r="K8" t="s">
+        <v>93</v>
+      </c>
+      <c r="L8" t="s">
+        <v>94</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>95</v>
+      </c>
+      <c r="O8" t="s">
+        <v>68</v>
+      </c>
+      <c r="P8" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>4</v>
+      </c>
+      <c r="R8" t="n">
+        <v>3</v>
+      </c>
+      <c r="S8" t="n">
+        <v>4</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>4</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>96</v>
+      </c>
+      <c r="X8" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>50681</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>100</v>
+      </c>
+      <c r="J9" t="s">
+        <v>101</v>
+      </c>
+      <c r="K9" t="s">
+        <v>102</v>
+      </c>
+      <c r="L9" t="s">
+        <v>103</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>104</v>
+      </c>
+      <c r="O9" t="s">
+        <v>68</v>
+      </c>
+      <c r="P9" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>5</v>
+      </c>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>96</v>
+      </c>
+      <c r="X9" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>105</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_725.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_725.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="114">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,9 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>Andrew H</t>
   </si>
   <si>
     <t>07/10/2018</t>
@@ -187,6 +190,9 @@
 There are some people that are obviously "living" in here for an extended period of time. The room directly above us had an assortment of plants in the window of the room, and out on the pathway by the door. The people in this room woke us up nearly every morning with the sounds of furniture moving...Stayed here 5 nights with my wife and a friend while visiting Disneyland and Knotts Berry Farm.Let's start with the room. The rooms at this motel have the new modern Motel 6 look with the green/gray colors and faux wood floors. The first room we were given had a bad lock on the door that wouldnt work and the second latch lock was missing. Luckily, I asked if there was another room available and was able to move. This room had a working lock and latch. The room itself was clean. Drapes had some holes in them, and it appears someone had broke the lock on the bathroom door at some point. The door was pretty beat up and the metal cover was missing from the lock. Not a big deal though. I am assuming this room was vacant for a while as there was a daddy long legs spider living in the shower that I am sure someone would have noticed if they were staying there. The A/C is an old pretty beat up wall unit that could use an update.There are some people that are obviously "living" in here for an extended period of time. The room directly above us had an assortment of plants in the window of the room, and out on the pathway by the door. The people in this room woke us up nearly every morning with the sounds of furniture moving around. Not sure exactly what was going on there. There were also some questionable people hanging around outside their rooms but they never did anything bad, it was just kind of awkward.This motel's biggest issue is parking and it caused us frustration a couple nights of our stay. The first 2 nights I was lucky enough to find a parking spot in the back of the lot, the only spot left in the entire lot. Night 3 was a different story. There were absolutely no spots left when we came back from Disney. There is a fire lane in the parking lot and that was even full of cars. I waited around for 10-15 minutes for the manager to show up (he was busy with a plunger in one of the rooms) and he wrote me out a parking pass to park in the adjacent restaurant, but only in the darkest area of the parking lot where no one could even see the cars. Luckily as I parked here I noticed someone leave the motel's parking lot and I moved by car back over there. On night 4, the parking lot was once again full, but no one was in the fire lane that was full of cars the night before. I pulled up here and a manager came out (it was never the same manger any of the days we were here) and told me I couldnt park there or in the restaurant lot now, I had to park clear across the street at some car mechanic......are you KIDDING me?!? Luckily for us he changed his mind 5 minutes later and allowed us to park in the fire lane so long as I moved the car at 8am. Great. I am on vacation and planned to sleep in for once and now I had to get up and move the car. The final night we were able to find a spot, so we didnt have to go through this circus act again.Overall the rooms are fine for the price. Everything in this area was expensive and I'd rather stay here than pay $30-50 more a night for a similar place down the road a few miles closer to the parks. The biggest issue here though is the parking. If you come during a less busy time of year this might not be an issue but during a busy time it is ridiculous and will cause you a headache when all you want to do is get in you room and sleep.More</t>
   </si>
   <si>
+    <t>Ceo T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d5954170-r382798827-Studio_6_Cypress-Cypress_California.html</t>
   </si>
   <si>
@@ -208,6 +214,9 @@
     <t>Studio 6 is a great hotel...the reviews do not reveal the great interiors of the facility. The rooms are clean, comfy and cozy. The beds will take you to dreamland like magic. I slept very well and in some cases over relaxed. I got a lot of work done with the free wifi service and managed to get in some tv time also. The housekeeping staff is very courteous and will keep you stocked with towels, soap and whatever necessities you need. Ask for Rosalinda. She is quite a peach and does her job to perfection. The housekeeping staff will check on you everyday to tidy up your room and restock it. This is probably the first hotel i have felt okay with to walk around on the laminated wood floors barefoot. Another benefit of this area everyone fails to mention is that the food trucks rally at the home depot a block or so away in the parking lot on Tuesdays drawing big crowds to the area. I went there for the catfish po'boy sandwiches with french fries. The trucks have all types of foods and desserts you can buy and eat there or take back to your room. Don't be put off by the exterior because the interiors are the real prize. I would recommend to anyone whether you be a casual traveler, tourist or local just looking to spend a quiet moment....This is the spot.  This location...Studio 6 is a great hotel...the reviews do not reveal the great interiors of the facility. The rooms are clean, comfy and cozy. The beds will take you to dreamland like magic. I slept very well and in some cases over relaxed. I got a lot of work done with the free wifi service and managed to get in some tv time also. The housekeeping staff is very courteous and will keep you stocked with towels, soap and whatever necessities you need. Ask for Rosalinda. She is quite a peach and does her job to perfection. The housekeeping staff will check on you everyday to tidy up your room and restock it. This is probably the first hotel i have felt okay with to walk around on the laminated wood floors barefoot. Another benefit of this area everyone fails to mention is that the food trucks rally at the home depot a block or so away in the parking lot on Tuesdays drawing big crowds to the area. I went there for the catfish po'boy sandwiches with french fries. The trucks have all types of foods and desserts you can buy and eat there or take back to your room. Don't be put off by the exterior because the interiors are the real prize. I would recommend to anyone whether you be a casual traveler, tourist or local just looking to spend a quiet moment....This is the spot.  This location is also adjacent to TACO BELL, L&amp;L HAWAIIAN BBQ, PANDA EXPRESS, FARMER BOYS BURGERS, KFC, THE POST OFFICE, ROSS, MARSHALL'S, UPS STORE, SEVERAL NAIL SHOPS AND AIR SALONS, CYPRESS COLLEGE, BIG LOTS, SALLY'S,2 LAUNDRIES, ALBERTSON'S, DOLLAR TREE, ARBY'S, BANK OF AMERICA, CHASE BANK AND HOME DEPOT.More</t>
   </si>
   <si>
+    <t>stellaisfree</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d5954170-r382611126-Studio_6_Cypress-Cypress_California.html</t>
   </si>
   <si>
@@ -229,6 +238,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>David S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d5954170-r349539090-Studio_6_Cypress-Cypress_California.html</t>
   </si>
   <si>
@@ -247,6 +259,9 @@
     <t>February 2016</t>
   </si>
   <si>
+    <t>Jso R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d5954170-r219940134-Studio_6_Cypress-Cypress_California.html</t>
   </si>
   <si>
@@ -274,6 +289,9 @@
     <t>First, the good - recently updated rooms with a mini kitchen, and the convenient location made a good home base for our stay in the LA area.The bad - as other reviewers here and elsewhere on the web have pointed out, there are far too many inconsiderate people hanging around in the parking lot and outside the rooms at all hours of the night, slamming doors, laughing, yelling, and loud talking like it's the middle of the day, setting off fireworks, drinking, and who knows what else.There seems to be many long term residents who treat the common area like its their own front yard, including dragging furniture out of the rooms to sit around outside at night, hang out, and call down at each other from the balcony walkway. Our neighbors were right outside our door every night, loud talking and yelling until 1:30 am or later. It's not a very good atmosphere for travelling families. Management really needs to get a handle on and take control of what goes on in their lot at night.More</t>
   </si>
   <si>
+    <t>Vcastlara</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d5954170-r215403418-Studio_6_Cypress-Cypress_California.html</t>
   </si>
   <si>
@@ -292,6 +310,9 @@
     <t>Clean, comfy. I loved that the pillows weren't like balloons, they were a bit broken in and oh soo cozy. The beds and blankets were very clean, I didn't need to use my own linens. The towels were clean and new. Great kitchenette and restroom. The shower can double as an exfoliator, it felt great after a day at the beach. The only thing that bothered me was that there are so many people in the parking lot and hanging around at night. There were also loud music and laughter at 3am. It was still better than the neighboring hotelMore</t>
   </si>
   <si>
+    <t>Gennesis V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d5954170-r207584870-Studio_6_Cypress-Cypress_California.html</t>
   </si>
   <si>
@@ -317,6 +338,9 @@
   </si>
   <si>
     <t>this place is very clean and well kept inside, there's a full kitchen with cooking utensils available. The only downside were the people that came out at night to hang out in the parking lots, but hotel employees make them leave after 9:30if you're here just for a place to crash for a few days its perfect, especially if you're gonna go to knotts or disneylandMore</t>
+  </si>
+  <si>
+    <t>kk41192</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d5954170-r197220315-Studio_6_Cypress-Cypress_California.html</t>
@@ -842,43 +866,47 @@
       <c r="A2" t="n">
         <v>50681</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>3</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="n">
         <v>4</v>
@@ -898,50 +926,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>50681</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P3" t="n">
         <v>5</v>
@@ -959,50 +991,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>50681</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>64</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M4" t="n">
         <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="O4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="n">
@@ -1020,50 +1056,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>50681</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>72</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="J5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="L5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="M5" t="n">
         <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="O5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1077,50 +1117,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>50681</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>79</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="J6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="K6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="L6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="M6" t="n">
         <v>3</v>
       </c>
       <c r="N6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="O6" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="n">
@@ -1136,47 +1180,51 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="X6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="Y6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>50681</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>89</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="J7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="K7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="L7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="M7" t="n">
         <v>3</v>
@@ -1203,56 +1251,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="X7" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="Y7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>50681</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>96</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="J8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="K8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="L8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="O8" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P8" t="n">
         <v>4</v>
@@ -1274,56 +1326,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="X8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="Y8" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>50681</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>106</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="J9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="K9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="L9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="O9" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P9" t="n">
         <v>4</v>
@@ -1345,13 +1401,13 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="X9" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="Y9" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
